--- a/data/ICR/analyse_ICR_samlet.xlsx
+++ b/data/ICR/analyse_ICR_samlet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grundfos.sharepoint.com/sites/Pro-017826/Shared Documents/Cooling tower/Steffen + Lærke/Experimentielt/data/data_IC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grundfos-my.sharepoint.com/personal/102222_grundfos_com/Documents/Desktop/Speciale/data/ICR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{DCB2CFFA-3348-4281-9819-EDD1C62CCD6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{31928769-615D-42AC-A6B5-980027665B83}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{DCB2CFFA-3348-4281-9819-EDD1C62CCD6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{74E0FA1A-21C7-479F-A149-3D7A5E7AF98C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{90AF6F21-7D73-4C14-9023-B6606A7968DD}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{90AF6F21-7D73-4C14-9023-B6606A7968DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
   <si>
     <t>dato</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>ICR D4 P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pH </t>
   </si>
 </sst>
 </file>
@@ -8376,15 +8379,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3265823B-2245-45DE-9BE5-48759DE2476C}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -8403,8 +8406,11 @@
       <c r="F1" t="s">
         <v>14</v>
       </c>
+      <c r="G1" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -8412,19 +8418,22 @@
         <v>73.599999999999994</v>
       </c>
       <c r="C2">
-        <v>587.14226898444645</v>
+        <v>586.06986301369864</v>
       </c>
       <c r="D2">
-        <v>175.797874453715</v>
+        <v>175.7978744537146</v>
       </c>
       <c r="E2">
-        <v>473.24114923747283</v>
+        <v>476.30555555555554</v>
       </c>
       <c r="F2">
         <v>4.4280769230769224</v>
       </c>
+      <c r="G2">
+        <v>9.77</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -8432,19 +8441,22 @@
         <v>74</v>
       </c>
       <c r="C3">
-        <v>553.12580054894784</v>
+        <v>552.11552511415516</v>
       </c>
       <c r="D3">
-        <v>175.75466825586017</v>
+        <v>169.94119984108062</v>
       </c>
       <c r="E3">
-        <v>496.54248366013064</v>
+        <v>506.27151416122001</v>
       </c>
       <c r="F3">
         <v>19.153076923076924</v>
       </c>
+      <c r="G3">
+        <v>9.77</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -8452,19 +8464,22 @@
         <v>73.599999999999994</v>
       </c>
       <c r="C4">
-        <v>561.62991765782249</v>
+        <v>560.60410958904117</v>
       </c>
       <c r="D4">
-        <v>176.06307111640842</v>
+        <v>172.70043702820817</v>
       </c>
       <c r="E4">
-        <v>517.11574074074088</v>
+        <v>521.16530501089323</v>
       </c>
       <c r="F4">
         <v>17.583846153846153</v>
       </c>
+      <c r="G4">
+        <v>9.76</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -8472,19 +8487,22 @@
         <v>74.599999999999994</v>
       </c>
       <c r="C5">
-        <v>579.14592863677944</v>
+        <v>578.08812785388125</v>
       </c>
       <c r="D5">
         <v>174.53843861740165</v>
       </c>
       <c r="E5">
-        <v>535.18763616557737</v>
+        <v>540.14678649237476</v>
       </c>
       <c r="F5">
         <v>15.744423076923077</v>
       </c>
+      <c r="G5">
+        <v>9.75</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -8492,19 +8510,22 @@
         <v>74</v>
       </c>
       <c r="C6">
-        <v>594.45699908508686</v>
+        <v>593.37123287671238</v>
       </c>
       <c r="D6">
         <v>172.84147794994038</v>
       </c>
       <c r="E6">
-        <v>556.5683551198257</v>
+        <v>561.25245098039204</v>
       </c>
       <c r="F6">
         <v>14.682884615384616</v>
       </c>
+      <c r="G6">
+        <v>9.75</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -8512,19 +8533,22 @@
         <v>75.599999999999994</v>
       </c>
       <c r="C7">
-        <v>600.03796889295518</v>
+        <v>598.94200913242003</v>
       </c>
       <c r="D7">
-        <v>176.52592371871276</v>
+        <v>169.1922924116011</v>
       </c>
       <c r="E7">
-        <v>566.22521786492371</v>
+        <v>570.83306100217874</v>
       </c>
       <c r="F7">
         <v>14.689615384615385</v>
       </c>
+      <c r="G7">
+        <v>9.75</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -8532,19 +8556,22 @@
         <v>77.2</v>
       </c>
       <c r="C8">
-        <v>620.7698993595609</v>
+        <v>619.6360730593608</v>
       </c>
       <c r="D8">
-        <v>172.89014700039729</v>
+        <v>169.55979340484703</v>
       </c>
       <c r="E8">
-        <v>592.24645969498908</v>
+        <v>596.68273420479295</v>
       </c>
       <c r="F8">
         <v>14.406923076923075</v>
       </c>
+      <c r="G8">
+        <v>9.74</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -8552,19 +8579,22 @@
         <v>80.2</v>
       </c>
       <c r="C9">
-        <v>637.13769441903025</v>
+        <v>635.97397260273965</v>
       </c>
       <c r="D9">
-        <v>175.83859753675009</v>
+        <v>168.87048073102901</v>
       </c>
       <c r="E9">
-        <v>616.87336601307197</v>
+        <v>621.44852941176464</v>
       </c>
       <c r="F9">
         <v>14.436730769230769</v>
       </c>
+      <c r="G9">
+        <v>9.74</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -8572,19 +8602,22 @@
         <v>82</v>
       </c>
       <c r="C10">
-        <v>665.97118023787743</v>
+        <v>664.75479452054788</v>
       </c>
       <c r="D10">
         <v>170.6533571712356</v>
       </c>
       <c r="E10">
-        <v>640.77859477124184</v>
+        <v>645.64787581699352</v>
       </c>
       <c r="F10">
         <v>14.406923076923078</v>
       </c>
+      <c r="G10">
+        <v>9.74</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -8592,19 +8625,22 @@
         <v>81.599999999999994</v>
       </c>
       <c r="C11">
-        <v>671.24565416285463</v>
+        <v>670.0196347031964</v>
       </c>
       <c r="D11">
         <v>173.84713945172825</v>
       </c>
       <c r="E11">
-        <v>674.20179738562092</v>
+        <v>679.13916122004366</v>
       </c>
       <c r="F11">
         <v>13.98</v>
       </c>
+      <c r="G11">
+        <v>9.74</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -8612,19 +8648,22 @@
         <v>81.599999999999994</v>
       </c>
       <c r="C12">
-        <v>690.09743824336692</v>
+        <v>688.83698630136985</v>
       </c>
       <c r="D12">
-        <v>175.70599920540326</v>
+        <v>168.08382995629719</v>
       </c>
       <c r="E12">
-        <v>694.34136710239648</v>
+        <v>684.98883442265787</v>
       </c>
       <c r="F12">
         <v>7.7001923076923076</v>
       </c>
+      <c r="G12">
+        <v>9.75</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -8632,19 +8671,22 @@
         <v>84</v>
       </c>
       <c r="C13">
-        <v>717.00960658737426</v>
+        <v>715.7</v>
       </c>
       <c r="D13">
         <v>165.79737783075092</v>
       </c>
       <c r="E13">
-        <v>721.79438997821353</v>
+        <v>727.27913943355111</v>
       </c>
       <c r="F13">
         <v>13.358846153846155</v>
       </c>
+      <c r="G13">
+        <v>9.76</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -8652,19 +8694,22 @@
         <v>81.2</v>
       </c>
       <c r="C14">
-        <v>740.10658737419953</v>
+        <v>738.75479452054799</v>
       </c>
       <c r="D14">
         <v>169.85578069129917</v>
       </c>
       <c r="E14">
-        <v>752.87282135076248</v>
+        <v>757.96541394335509</v>
       </c>
       <c r="F14">
         <v>14.19923076923077</v>
       </c>
+      <c r="G14">
+        <v>9.77</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -8672,19 +8717,22 @@
         <v>84.6</v>
       </c>
       <c r="C15">
-        <v>788.25846294602013</v>
+        <v>786.81872146118712</v>
       </c>
       <c r="D15">
         <v>166.80552244735793</v>
       </c>
       <c r="E15">
-        <v>817.96541394335509</v>
+        <v>823.34395424836589</v>
       </c>
       <c r="F15">
         <v>13.906923076923077</v>
       </c>
+      <c r="G15">
+        <v>9.77</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -8692,19 +8740,22 @@
         <v>86.8</v>
       </c>
       <c r="C16">
-        <v>830.45425434583717</v>
+        <v>828.93744292237443</v>
       </c>
       <c r="D16">
         <v>164.32240762812873</v>
       </c>
       <c r="E16">
-        <v>857.45070806100216</v>
+        <v>885.22848583877987</v>
       </c>
       <c r="F16">
         <v>14.009807692307692</v>
       </c>
+      <c r="G16">
+        <v>9.7799999999999994</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -8712,19 +8763,22 @@
         <v>92.4</v>
       </c>
       <c r="C17">
-        <v>959.97849954254343</v>
+        <v>958.22511415525105</v>
       </c>
       <c r="D17">
         <v>158.0664481525626</v>
       </c>
       <c r="E17">
-        <v>1051.3259803921567</v>
+        <v>1056.1407952069717</v>
       </c>
       <c r="F17">
         <v>14.580961538461537</v>
       </c>
+      <c r="G17">
+        <v>9.8000000000000007</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -8732,7 +8786,7 @@
         <v>104.4</v>
       </c>
       <c r="C18">
-        <v>1323.8440073193046</v>
+        <v>1321.4260273972602</v>
       </c>
       <c r="D18">
         <v>136.02781088597536</v>
@@ -8743,8 +8797,11 @@
       <c r="F18">
         <v>13.009807692307692</v>
       </c>
+      <c r="G18">
+        <v>9.8800000000000008</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -8752,7 +8809,7 @@
         <v>46.8</v>
       </c>
       <c r="C19">
-        <v>167.37900274473924</v>
+        <v>167.07328767123286</v>
       </c>
       <c r="D19">
         <v>171.98132697655939</v>
@@ -8764,7 +8821,7 @@
         <v>4.3261538461538454</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -8772,7 +8829,7 @@
         <v>48.4</v>
       </c>
       <c r="C20">
-        <v>167.56198536139067</v>
+        <v>167.25593607305936</v>
       </c>
       <c r="D20">
         <v>160.96622963845846</v>
@@ -8784,7 +8841,7 @@
         <v>2.9153846153846157</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -8792,7 +8849,7 @@
         <v>50.8</v>
       </c>
       <c r="C21">
-        <v>172.46706312900275</v>
+        <v>172.15205479452055</v>
       </c>
       <c r="D21">
         <v>177.82856575288042</v>
@@ -8804,7 +8861,7 @@
         <v>2.7173076923076924</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -8812,7 +8869,7 @@
         <v>50.4</v>
       </c>
       <c r="C22">
-        <v>173.74222323879232</v>
+        <v>173.42488584474884</v>
       </c>
       <c r="D22">
         <v>178.29290822407626</v>
@@ -8824,7 +8881,7 @@
         <v>2.101346153846154</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -8832,7 +8889,7 @@
         <v>51.4</v>
       </c>
       <c r="C23">
-        <v>177.04963403476671</v>
+        <v>176.72625570776256</v>
       </c>
       <c r="D23">
         <v>180.22973778307511</v>
@@ -8844,7 +8901,7 @@
         <v>2.1675</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -8852,7 +8909,7 @@
         <v>51.2</v>
       </c>
       <c r="C24">
-        <v>176.3508691674291</v>
+        <v>176.02876712328768</v>
       </c>
       <c r="D24">
         <v>155.12743345252284</v>
@@ -8864,7 +8921,7 @@
         <v>2.043076923076923</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -8872,7 +8929,7 @@
         <v>52.8</v>
       </c>
       <c r="C25">
-        <v>180.74130832570904</v>
+        <v>180.41118721461186</v>
       </c>
       <c r="D25">
         <v>181.53734604688123</v>
@@ -8884,7 +8941,7 @@
         <v>1.6811538461538462</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -8892,7 +8949,7 @@
         <v>54</v>
       </c>
       <c r="C26">
-        <v>180.7161482159195</v>
+        <v>180.38607305936074</v>
       </c>
       <c r="D26">
         <v>159.96851410409218</v>
@@ -8904,7 +8961,7 @@
         <v>2.1630769230769231</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -8912,7 +8969,7 @@
         <v>53.2</v>
       </c>
       <c r="C27">
-        <v>184.9213174748399</v>
+        <v>184.58356164383565</v>
       </c>
       <c r="D27">
         <v>157.53953118792214</v>
@@ -8924,7 +8981,7 @@
         <v>2.1034615384615387</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -8932,7 +8989,7 @@
         <v>55</v>
       </c>
       <c r="C28">
-        <v>186.2548032936871</v>
+        <v>185.91461187214611</v>
       </c>
       <c r="D28">
         <v>156.96146205800557</v>
@@ -8944,7 +9001,7 @@
         <v>2.0334615384615384</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -8952,7 +9009,7 @@
         <v>54.6</v>
       </c>
       <c r="C29">
-        <v>196.61619396157363</v>
+        <v>196.25707762557076</v>
       </c>
       <c r="D29">
         <v>187.65176797775132</v>
@@ -8964,7 +9021,7 @@
         <v>2.0515384615384615</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -8972,7 +9029,7 @@
         <v>57</v>
       </c>
       <c r="C30">
-        <v>199.78979871912168</v>
+        <v>199.42488584474884</v>
       </c>
       <c r="D30">
         <v>188.63855780691301</v>
@@ -8984,7 +9041,7 @@
         <v>2.0926923076923076</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -8992,7 +9049,7 @@
         <v>56</v>
       </c>
       <c r="C31">
-        <v>206.53270814272645</v>
+        <v>206.15547945205478</v>
       </c>
       <c r="D31">
         <v>190.1353794199444</v>
@@ -9004,7 +9061,7 @@
         <v>1.9873076923076924</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -9012,7 +9069,7 @@
         <v>57.4</v>
       </c>
       <c r="C32">
-        <v>214.69487648673379</v>
+        <v>214.30273972602743</v>
       </c>
       <c r="D32">
         <v>193.00139054429877</v>
@@ -9032,7 +9089,7 @@
         <v>61</v>
       </c>
       <c r="C33">
-        <v>234.78064958828912</v>
+        <v>234.35182648401826</v>
       </c>
       <c r="D33">
         <v>196.89789431863329</v>
@@ -9052,7 +9109,7 @@
         <v>49.8</v>
       </c>
       <c r="C34">
-        <v>145.2849954254346</v>
+        <v>145.01963470319635</v>
       </c>
       <c r="D34">
         <v>141.75536352800952</v>
@@ -9072,7 +9129,7 @@
         <v>51.2</v>
       </c>
       <c r="C35">
-        <v>156.20791399817017</v>
+        <v>155.92260273972602</v>
       </c>
       <c r="D35">
         <v>171.48023440603893</v>
@@ -9092,7 +9149,7 @@
         <v>54.8</v>
       </c>
       <c r="C36">
-        <v>207.95196706312902</v>
+        <v>207.57214611872143</v>
       </c>
       <c r="D36">
         <v>185.56297179181567</v>
@@ -9106,69 +9163,35 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{E35E75F2-D2FB-4315-AFBC-D8B33A7380F7}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0.20419999999999999</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>26.1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I3</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010013E660C0EEA2F44AA3B088C58E7762CB" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4e8e53cbc46f4e3396eef7ab791f486f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="add409d8-c458-45bf-bf5f-710f0ed12ba3" xmlns:ns3="B9FBF822-0A65-4D1F-BC13-C27C7257EFA0" xmlns:ns4="b9fbf822-0a65-4d1f-bc13-c27c7257efa0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="de6a899a0e505161a4968de5f0be888c" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="add409d8-c458-45bf-bf5f-710f0ed12ba3"/>
@@ -9441,6 +9464,65 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9456,22 +9538,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1BDDC74-0544-45E7-81C0-ED532ECA9BCC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A42BD76C-2428-418F-A371-B62282AC093D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{780CC7A2-0785-4B8F-A035-CBED732E6D28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9491,6 +9557,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A42BD76C-2428-418F-A371-B62282AC093D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1BDDC74-0544-45E7-81C0-ED532ECA9BCC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF073551-C4F1-402E-A1F3-FAED9D55A094}">
   <ds:schemaRefs>
